--- a/optiFlow/dataOutput/dataMatrixOutput.xlsx
+++ b/optiFlow/dataOutput/dataMatrixOutput.xlsx
@@ -53,18 +53,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I42"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.140625" customWidth="true"/>
-    <col min="2" max="2" width="2.140625" customWidth="true"/>
-    <col min="3" max="3" width="2.140625" customWidth="true"/>
-    <col min="4" max="4" width="2.140625" customWidth="true"/>
-    <col min="5" max="5" width="2.140625" customWidth="true"/>
-    <col min="6" max="6" width="2.140625" customWidth="true"/>
-    <col min="7" max="7" width="2.140625" customWidth="true"/>
-    <col min="8" max="8" width="2.140625" customWidth="true"/>
-    <col min="9" max="9" width="2.140625" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="13.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="13.7109375" customWidth="true"/>
+    <col min="8" max="8" width="13.7109375" customWidth="true"/>
+    <col min="9" max="9" width="2.15625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -96,6 +96,1195 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="0">
+        <v>0.4141183020823202</v>
+      </c>
+      <c r="B2" s="0">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C2" s="0">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.93081842893702915</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.59890646154088234</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G2" s="0">
+        <v>0.41125090461178765</v>
+      </c>
+      <c r="H2" s="0">
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="I2" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B3" s="0">
+        <v>0.4285839861208956</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D3" s="0">
+        <v>0.9414123686297714</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.42575316446494105</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.62253584041514831</v>
+      </c>
+      <c r="G3" s="0">
+        <v>0.73778084899498242</v>
+      </c>
+      <c r="H3" s="0">
+        <v>0.010101010101010102</v>
+      </c>
+      <c r="I3" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0">
+        <v>0.4250692531477307</v>
+      </c>
+      <c r="B4" s="0">
+        <v>0.71260981252965439</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0.60404781402719532</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.37865152054093643</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.98497435190186577</v>
+      </c>
+      <c r="G4" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H4" s="0">
+        <v>0.61688394679466629</v>
+      </c>
+      <c r="I4" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>1.0228233107102183</v>
+      </c>
+      <c r="B5" s="0">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0.26090176778743468</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H5" s="0">
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="I5" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B6" s="0">
+        <v>1.0190227397133622</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0.33165224330881848</v>
+      </c>
+      <c r="D6" s="0">
+        <v>0.78090029162945551</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F6" s="0">
+        <v>1.0162787320824866</v>
+      </c>
+      <c r="G6" s="0">
+        <v>0.32889508950348029</v>
+      </c>
+      <c r="H6" s="0">
+        <v>0.85333541197073615</v>
+      </c>
+      <c r="I6" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="B7" s="0">
+        <v>0.87629889992104615</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D7" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E7" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F7" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="G7" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H7" s="0">
+        <v>0.6770686948822956</v>
+      </c>
+      <c r="I7" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0">
+        <v>0.3799812208963444</v>
+      </c>
+      <c r="B8" s="0">
+        <v>1.2776385460436939</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D8" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F8" s="0">
+        <v>1.2440969549299703</v>
+      </c>
+      <c r="G8" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H8" s="0">
+        <v>0.20500355912663665</v>
+      </c>
+      <c r="I8" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0">
+        <v>1.185845551511751</v>
+      </c>
+      <c r="B9" s="0">
+        <v>0.97912552032542466</v>
+      </c>
+      <c r="C9" s="0">
+        <v>0.54334997117662476</v>
+      </c>
+      <c r="D9" s="0">
+        <v>1.0160717672092519</v>
+      </c>
+      <c r="E9" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F9" s="0">
+        <v>1.3483122079248036</v>
+      </c>
+      <c r="G9" s="0">
+        <v>0.47017566148370937</v>
+      </c>
+      <c r="H9" s="0">
+        <v>0.18117273284132696</v>
+      </c>
+      <c r="I9" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="0">
+        <v>0.58402551939234837</v>
+      </c>
+      <c r="B10" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D10" s="0">
+        <v>0.27465958023046921</v>
+      </c>
+      <c r="E10" s="0">
+        <v>0.6242849108493429</v>
+      </c>
+      <c r="F10" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="G10" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H10" s="0">
+        <v>0.39669581531977294</v>
+      </c>
+      <c r="I10" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="0">
+        <v>0.43494326350499846</v>
+      </c>
+      <c r="B11" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C11" s="0">
+        <v>0.22496136747705775</v>
+      </c>
+      <c r="D11" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E11" s="0">
+        <v>0.68334565961379479</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.5559839588354949</v>
+      </c>
+      <c r="G11" s="0">
+        <v>0.10267799551702966</v>
+      </c>
+      <c r="H11" s="0">
+        <v>0.030765838035029192</v>
+      </c>
+      <c r="I11" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="0">
+        <v>0.62795087351515333</v>
+      </c>
+      <c r="B12" s="0">
+        <v>0.5331700522664663</v>
+      </c>
+      <c r="C12" s="0">
+        <v>0.68942710503141835</v>
+      </c>
+      <c r="D12" s="0">
+        <v>0.5919037840244592</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.90293823212086732</v>
+      </c>
+      <c r="G12" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H12" s="0">
+        <v>0.010101010101010102</v>
+      </c>
+      <c r="I12" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B13" s="0">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C13" s="0">
+        <v>0.61953414974610022</v>
+      </c>
+      <c r="D13" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E13" s="0">
+        <v>0.27460279111265695</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.86900228251695399</v>
+      </c>
+      <c r="G13" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H13" s="0">
+        <v>0.16020481723263813</v>
+      </c>
+      <c r="I13" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B14" s="0">
+        <v>0.34373018074968231</v>
+      </c>
+      <c r="C14" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D14" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E14" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F14" s="0">
+        <v>1.4821147113158137</v>
+      </c>
+      <c r="G14" s="0">
+        <v>0.3126616296750972</v>
+      </c>
+      <c r="H14" s="0">
+        <v>0.29301637720903401</v>
+      </c>
+      <c r="I14" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="0">
+        <v>0.45880493317623466</v>
+      </c>
+      <c r="B15" s="0">
+        <v>0.43425154105126218</v>
+      </c>
+      <c r="C15" s="0">
+        <v>0.95378708550873215</v>
+      </c>
+      <c r="D15" s="0">
+        <v>0.15561348246835488</v>
+      </c>
+      <c r="E15" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F15" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="G15" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H15" s="0">
+        <v>0.010101010101010102</v>
+      </c>
+      <c r="I15" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="0">
+        <v>0.32931367732276812</v>
+      </c>
+      <c r="B16" s="0">
+        <v>0.40937021151436642</v>
+      </c>
+      <c r="C16" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D16" s="0">
+        <v>1.1111111111111109</v>
+      </c>
+      <c r="E16" s="0">
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="F16" s="0">
+        <v>1.153767579619126</v>
+      </c>
+      <c r="G16" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H16" s="0">
+        <v>0.010101010101010102</v>
+      </c>
+      <c r="I16" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="0">
+        <v>0.3879234190747507</v>
+      </c>
+      <c r="B17" s="0">
+        <v>1.2290413641476503</v>
+      </c>
+      <c r="C17" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D17" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E17" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F17" s="0">
+        <v>1.166755416532903</v>
+      </c>
+      <c r="G17" s="0">
+        <v>0.2483083811638189</v>
+      </c>
+      <c r="H17" s="0">
+        <v>0.52887001249442178</v>
+      </c>
+      <c r="I17" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="0">
+        <v>0.41104814961761582</v>
+      </c>
+      <c r="B18" s="0">
+        <v>0.92517788126430445</v>
+      </c>
+      <c r="C18" s="0">
+        <v>0.2063679361349075</v>
+      </c>
+      <c r="D18" s="0">
+        <v>0.65323302800068328</v>
+      </c>
+      <c r="E18" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F18" s="0">
+        <v>1.2275147782221671</v>
+      </c>
+      <c r="G18" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H18" s="0">
+        <v>0.13558683354827919</v>
+      </c>
+      <c r="I18" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="0">
+        <v>0.75258214916275123</v>
+      </c>
+      <c r="B19" s="0">
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="C19" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D19" s="0">
+        <v>0.85255157678267035</v>
+      </c>
+      <c r="E19" s="0">
+        <v>0.59322946526033093</v>
+      </c>
+      <c r="F19" s="0">
+        <v>0.96606722322865635</v>
+      </c>
+      <c r="G19" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H19" s="0">
+        <v>0.19422712795870706</v>
+      </c>
+      <c r="I19" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="0">
+        <v>0.32463666551460568</v>
+      </c>
+      <c r="B20" s="0">
+        <v>0.84485614554588606</v>
+      </c>
+      <c r="C20" s="0">
+        <v>0.47008962236883178</v>
+      </c>
+      <c r="D20" s="0">
+        <v>0.63525361732801988</v>
+      </c>
+      <c r="E20" s="0">
+        <v>1.0266462381035284</v>
+      </c>
+      <c r="F20" s="0">
+        <v>1.23345721784235</v>
+      </c>
+      <c r="G20" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H20" s="0">
+        <v>0.6156254815741159</v>
+      </c>
+      <c r="I20" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="0">
+        <v>0.5678041076911946</v>
+      </c>
+      <c r="B21" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C21" s="0">
+        <v>0.91905536000995569</v>
+      </c>
+      <c r="D21" s="0">
+        <v>0.37575318179557393</v>
+      </c>
+      <c r="E21" s="0">
+        <v>0.33074536578656993</v>
+      </c>
+      <c r="F21" s="0">
+        <v>1.2576231677624243</v>
+      </c>
+      <c r="G21" s="0">
+        <v>0.18333474097505975</v>
+      </c>
+      <c r="H21" s="0">
+        <v>0.010101010101010102</v>
+      </c>
+      <c r="I21" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="0">
+        <v>0.39502163978856231</v>
+      </c>
+      <c r="B22" s="0">
+        <v>0.76030601616757032</v>
+      </c>
+      <c r="C22" s="0">
+        <v>0.17843875604003406</v>
+      </c>
+      <c r="D22" s="0">
+        <v>1.0632740195538117</v>
+      </c>
+      <c r="E22" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F22" s="0">
+        <v>0.75809247494493948</v>
+      </c>
+      <c r="G22" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H22" s="0">
+        <v>0.010101010101010102</v>
+      </c>
+      <c r="I22" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="0">
+        <v>0.38007071742083876</v>
+      </c>
+      <c r="B23" s="0">
+        <v>0.69629821836703232</v>
+      </c>
+      <c r="C23" s="0">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="D23" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E23" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F23" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="G23" s="0">
+        <v>0.6699711523927574</v>
+      </c>
+      <c r="H23" s="0">
+        <v>0.18821707754871281</v>
+      </c>
+      <c r="I23" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B24" s="0">
+        <v>0.61101942510984064</v>
+      </c>
+      <c r="C24" s="0">
+        <v>0.36647392658205996</v>
+      </c>
+      <c r="D24" s="0">
+        <v>0.36025634918799032</v>
+      </c>
+      <c r="E24" s="0">
+        <v>0.13257607184860279</v>
+      </c>
+      <c r="F24" s="0">
+        <v>1.2217109564520456</v>
+      </c>
+      <c r="G24" s="0">
+        <v>0.24857868366359295</v>
+      </c>
+      <c r="H24" s="0">
+        <v>0.010101010101010102</v>
+      </c>
+      <c r="I24" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B25" s="0">
+        <v>0.46278028636312762</v>
+      </c>
+      <c r="C25" s="0">
+        <v>0.19053566930535759</v>
+      </c>
+      <c r="D25" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E25" s="0">
+        <v>0.26939241541765108</v>
+      </c>
+      <c r="F25" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H25" s="0">
+        <v>0.92425450622567218</v>
+      </c>
+      <c r="I25" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B26" s="0">
+        <v>1.3001974146689526</v>
+      </c>
+      <c r="C26" s="0">
+        <v>0.61960494512250019</v>
+      </c>
+      <c r="D26" s="0">
+        <v>0.20771934036785905</v>
+      </c>
+      <c r="E26" s="0">
+        <v>0.35438397848983383</v>
+      </c>
+      <c r="F26" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G26" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H26" s="0">
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="I26" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="0">
+        <v>0.52536436351053017</v>
+      </c>
+      <c r="B27" s="0">
+        <v>0.85402014007814075</v>
+      </c>
+      <c r="C27" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D27" s="0">
+        <v>0.20681535721606223</v>
+      </c>
+      <c r="E27" s="0">
+        <v>0.37933140104908047</v>
+      </c>
+      <c r="F27" s="0">
+        <v>1.2131937787044724</v>
+      </c>
+      <c r="G27" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H27" s="0">
+        <v>0.18480301115170988</v>
+      </c>
+      <c r="I27" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="0">
+        <v>1.1904761904761905</v>
+      </c>
+      <c r="B28" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C28" s="0">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="D28" s="0">
+        <v>0.39100407252877545</v>
+      </c>
+      <c r="E28" s="0">
+        <v>0.76318830453140452</v>
+      </c>
+      <c r="F28" s="0">
+        <v>0.5</v>
+      </c>
+      <c r="G28" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H28" s="0">
+        <v>0.16399822114764837</v>
+      </c>
+      <c r="I28" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="0">
+        <v>0.68754832180071535</v>
+      </c>
+      <c r="B29" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C29" s="0">
+        <v>0.6802616076525958</v>
+      </c>
+      <c r="D29" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E29" s="0">
+        <v>0.29625291894914779</v>
+      </c>
+      <c r="F29" s="0">
+        <v>1.3261779443306869</v>
+      </c>
+      <c r="G29" s="0">
+        <v>0.21616156253591218</v>
+      </c>
+      <c r="H29" s="0">
+        <v>0.84434705514868114</v>
+      </c>
+      <c r="I29" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="0">
+        <v>0.97922903160000185</v>
+      </c>
+      <c r="B30" s="0">
+        <v>0.50787946503445713</v>
+      </c>
+      <c r="C30" s="0">
+        <v>0.57297252316142888</v>
+      </c>
+      <c r="D30" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E30" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F30" s="0">
+        <v>1.4624129667468528</v>
+      </c>
+      <c r="G30" s="0">
+        <v>0.052656503484993823</v>
+      </c>
+      <c r="H30" s="0">
+        <v>0.2755708457255997</v>
+      </c>
+      <c r="I30" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="0">
+        <v>0.93175410901740607</v>
+      </c>
+      <c r="B31" s="0">
+        <v>1.1306251820378597</v>
+      </c>
+      <c r="C31" s="0">
+        <v>0.61954503138171202</v>
+      </c>
+      <c r="D31" s="0">
+        <v>0.84734783637472011</v>
+      </c>
+      <c r="E31" s="0">
+        <v>0.72805262401569992</v>
+      </c>
+      <c r="F31" s="0">
+        <v>1.1198816285292901</v>
+      </c>
+      <c r="G31" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H31" s="0">
+        <v>0.010101010101010102</v>
+      </c>
+      <c r="I31" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="0">
+        <v>1.0722414114561112</v>
+      </c>
+      <c r="B32" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C32" s="0">
+        <v>0.4322134761264852</v>
+      </c>
+      <c r="D32" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E32" s="0">
+        <v>0.77340690196316908</v>
+      </c>
+      <c r="F32" s="0">
+        <v>1.4308581511967091</v>
+      </c>
+      <c r="G32" s="0">
+        <v>0.053212620689125342</v>
+      </c>
+      <c r="H32" s="0">
+        <v>0.26761169645006294</v>
+      </c>
+      <c r="I32" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B33" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C33" s="0">
+        <v>1.0300432451481303</v>
+      </c>
+      <c r="D33" s="0">
+        <v>0.19191026454237176</v>
+      </c>
+      <c r="E33" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F33" s="0">
+        <v>1.1957175506405742</v>
+      </c>
+      <c r="G33" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H33" s="0">
+        <v>0.41720939793279482</v>
+      </c>
+      <c r="I33" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B34" s="0">
+        <v>1.0761893918150656</v>
+      </c>
+      <c r="C34" s="0">
+        <v>0.73874636852704378</v>
+      </c>
+      <c r="D34" s="0">
+        <v>0.16827406846350951</v>
+      </c>
+      <c r="E34" s="0">
+        <v>0.11694841899119315</v>
+      </c>
+      <c r="F34" s="0">
+        <v>0.73673256157951872</v>
+      </c>
+      <c r="G34" s="0">
+        <v>0.85581800753783865</v>
+      </c>
+      <c r="H34" s="0">
+        <v>0.46100727217721871</v>
+      </c>
+      <c r="I34" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="0">
+        <v>0.50531599045050857</v>
+      </c>
+      <c r="B35" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C35" s="0">
+        <v>0.48420711321830912</v>
+      </c>
+      <c r="D35" s="0">
+        <v>0.14177541215219633</v>
+      </c>
+      <c r="E35" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F35" s="0">
+        <v>1.2724404620537986</v>
+      </c>
+      <c r="G35" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H35" s="0">
+        <v>0.96502312476331653</v>
+      </c>
+      <c r="I35" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B36" s="0">
+        <v>0.86889341669189524</v>
+      </c>
+      <c r="C36" s="0">
+        <v>0.98161338777678964</v>
+      </c>
+      <c r="D36" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E36" s="0">
+        <v>0.32970397178730565</v>
+      </c>
+      <c r="F36" s="0">
+        <v>1.3482852735934103</v>
+      </c>
+      <c r="G36" s="0">
+        <v>0.11622147121414061</v>
+      </c>
+      <c r="H36" s="0">
+        <v>0.010101010101010102</v>
+      </c>
+      <c r="I36" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B37" s="0">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C37" s="0">
+        <v>1.0292915850082847</v>
+      </c>
+      <c r="D37" s="0">
+        <v>0.40175321196524416</v>
+      </c>
+      <c r="E37" s="0">
+        <v>0.059367350862248994</v>
+      </c>
+      <c r="F37" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="G37" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="H37" s="0">
+        <v>0.2597916654642512</v>
+      </c>
+      <c r="I37" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="0">
+        <v>1.1048191082982737</v>
+      </c>
+      <c r="B38" s="0">
+        <v>0.55180729232528303</v>
+      </c>
+      <c r="C38" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D38" s="0">
+        <v>0.33865702491355804</v>
+      </c>
+      <c r="E38" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F38" s="0">
+        <v>1.3578541020935713</v>
+      </c>
+      <c r="G38" s="0">
+        <v>0.29339254243911078</v>
+      </c>
+      <c r="H38" s="0">
+        <v>1.0101010101010102</v>
+      </c>
+      <c r="I38" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B39" s="0">
+        <v>0.77529464140623439</v>
+      </c>
+      <c r="C39" s="0">
+        <v>0.64302826642766064</v>
+      </c>
+      <c r="D39" s="0">
+        <v>0.65774453953500422</v>
+      </c>
+      <c r="E39" s="0">
+        <v>0.16500700929626036</v>
+      </c>
+      <c r="F39" s="0">
+        <v>1.3515680237547527</v>
+      </c>
+      <c r="G39" s="0">
+        <v>0.18402163957324019</v>
+      </c>
+      <c r="H39" s="0">
+        <v>0.98587227430862268</v>
+      </c>
+      <c r="I39" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B40" s="0">
+        <v>0.69507203685944097</v>
+      </c>
+      <c r="C40" s="0">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="D40" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E40" s="0">
+        <v>0.68722322976055494</v>
+      </c>
+      <c r="F40" s="0">
+        <v>0.7362314714541367</v>
+      </c>
+      <c r="G40" s="0">
+        <v>0.77567400170220469</v>
+      </c>
+      <c r="H40" s="0">
+        <v>0.010101010101010102</v>
+      </c>
+      <c r="I40" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="0">
+        <v>0.19047619047619047</v>
+      </c>
+      <c r="B41" s="0">
+        <v>0.70613770341408577</v>
+      </c>
+      <c r="C41" s="0">
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="D41" s="0">
+        <v>0.42605180060780407</v>
+      </c>
+      <c r="E41" s="0">
+        <v>0.49887523694776276</v>
+      </c>
+      <c r="F41" s="0">
+        <v>1.0578980080977756</v>
+      </c>
+      <c r="G41" s="0">
+        <v>0.66392510398863658</v>
+      </c>
+      <c r="H41" s="0">
+        <v>0.010101010101010102</v>
+      </c>
+      <c r="I41" s="0">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="0">
+        <v>0.25045798553150428</v>
+      </c>
+      <c r="B42" s="0">
+        <v>0.4384215300366488</v>
+      </c>
+      <c r="C42" s="0">
+        <v>0.81752766893145501</v>
+      </c>
+      <c r="D42" s="0">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="E42" s="0">
+        <v>0.052631578947368418</v>
+      </c>
+      <c r="F42" s="0">
+        <v>1.5</v>
+      </c>
+      <c r="G42" s="0">
+        <v>0.38383562346972289</v>
+      </c>
+      <c r="H42" s="0">
+        <v>0.59263433464147486</v>
+      </c>
+      <c r="I42" s="0">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>